--- a/correlation/data/macro_dashboard.xlsx
+++ b/correlation/data/macro_dashboard.xlsx
@@ -447,25 +447,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-1.268650836534802</v>
+        <v>-1.128220921898403</v>
       </c>
       <c r="C2">
-        <v>-15.40630465878301</v>
+        <v>1.937303296807066</v>
       </c>
       <c r="D2">
-        <v>-15.4829793998933</v>
+        <v>-1.734741677382702</v>
       </c>
       <c r="E2">
-        <v>-3.485687430294846</v>
+        <v>-3.14093520602799</v>
       </c>
       <c r="F2">
-        <v>-1.361365031132819</v>
+        <v>-2.080991132083254</v>
       </c>
       <c r="G2">
-        <v>-2.227291156109427</v>
+        <v>-3.448685970797585</v>
       </c>
       <c r="H2">
-        <v>-1.972893359601686</v>
+        <v>-2.543020420665861</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,25 +473,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4110025763511658</v>
+        <v>0.4216368198394775</v>
       </c>
       <c r="C3">
-        <v>4.988020805285487e-07</v>
+        <v>0.846427857875824</v>
       </c>
       <c r="D3">
-        <v>0.9999861717224121</v>
+        <v>0.423496812582016</v>
       </c>
       <c r="E3">
-        <v>0.03442909568548203</v>
+        <v>0.06077240779995918</v>
       </c>
       <c r="F3">
-        <v>0.2233323007822037</v>
+        <v>0.1392318904399872</v>
       </c>
       <c r="G3">
-        <v>0.2648223638534546</v>
+        <v>0.2003462165594101</v>
       </c>
       <c r="H3">
-        <v>0.1901174336671829</v>
+        <v>0.2078103125095367</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -499,25 +499,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.384996622800827</v>
+        <v>0.4278980195522308</v>
       </c>
       <c r="C4">
-        <v>9.020419611260877e-07</v>
+        <v>0.8019578456878662</v>
       </c>
       <c r="D4">
-        <v>0.9999814033508301</v>
+        <v>0.5084766745567322</v>
       </c>
       <c r="E4">
-        <v>0.03352994844317436</v>
+        <v>0.0842847004532814</v>
       </c>
       <c r="F4">
-        <v>0.2253393232822418</v>
+        <v>0.1717276275157928</v>
       </c>
       <c r="G4">
-        <v>0.2427459359169006</v>
+        <v>0.3075476884841919</v>
       </c>
       <c r="H4">
-        <v>0.1903920322656631</v>
+        <v>0.2629084587097168</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -525,25 +525,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3444225490093231</v>
+        <v>0.375389963388443</v>
       </c>
       <c r="C5">
-        <v>5.718341526517179e-06</v>
+        <v>0.7893338799476624</v>
       </c>
       <c r="D5">
-        <v>0.9999866485595703</v>
+        <v>0.4050320386886597</v>
       </c>
       <c r="E5">
-        <v>0.03879506140947342</v>
+        <v>0.06919961422681808</v>
       </c>
       <c r="F5">
-        <v>0.2496839016675949</v>
+        <v>0.1818868368864059</v>
       </c>
       <c r="G5">
-        <v>0.2862490713596344</v>
+        <v>0.2889100015163422</v>
       </c>
       <c r="H5">
-        <v>0.2237614244222641</v>
+        <v>0.2354905903339386</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -551,25 +551,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5101462602615356</v>
+        <v>0.5573626756668091</v>
       </c>
       <c r="C6">
-        <v>0.9999855756759644</v>
+        <v>0.188168078660965</v>
       </c>
       <c r="D6">
-        <v>0.007780672982335091</v>
+        <v>0.6618247628211975</v>
       </c>
       <c r="E6">
-        <v>0.8574390411376953</v>
+        <v>0.8639227747917175</v>
       </c>
       <c r="F6">
-        <v>0.7498331069946289</v>
+        <v>0.8434329032897949</v>
       </c>
       <c r="G6">
-        <v>0.8391581177711487</v>
+        <v>0.9452561736106873</v>
       </c>
       <c r="H6">
-        <v>0.7530416250228882</v>
+        <v>0.8793932795524597</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -577,25 +577,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5050332546234131</v>
+        <v>0.5494842529296875</v>
       </c>
       <c r="C7">
-        <v>0.9999971389770508</v>
+        <v>0.1751695424318314</v>
       </c>
       <c r="D7">
-        <v>0.0004654013318940997</v>
+        <v>0.6744581460952759</v>
       </c>
       <c r="E7">
-        <v>0.9271439909934998</v>
+        <v>0.8959792852401733</v>
       </c>
       <c r="F7">
-        <v>0.7643277049064636</v>
+        <v>0.8530579805374146</v>
       </c>
       <c r="G7">
-        <v>0.8053273558616638</v>
+        <v>0.9476028680801392</v>
       </c>
       <c r="H7">
-        <v>0.8421058654785156</v>
+        <v>0.8901272416114807</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -603,25 +603,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4848836958408356</v>
+        <v>0.5407620668411255</v>
       </c>
       <c r="C8">
-        <v>0.9999990463256836</v>
+        <v>0.1562762260437012</v>
       </c>
       <c r="D8">
-        <v>0.0004587499715853482</v>
+        <v>0.6914710998535156</v>
       </c>
       <c r="E8">
-        <v>0.9221686124801636</v>
+        <v>0.8991127014160156</v>
       </c>
       <c r="F8">
-        <v>0.7833120822906494</v>
+        <v>0.867162823677063</v>
       </c>
       <c r="G8">
-        <v>0.7932755947113037</v>
+        <v>0.9390449523925781</v>
       </c>
       <c r="H8">
-        <v>0.7828020453453064</v>
+        <v>0.850828230381012</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/macro_dashboard.xlsx
+++ b/correlation/data/macro_dashboard.xlsx
@@ -447,25 +447,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-1.128220921898403</v>
+        <v>-1.230720887883993</v>
       </c>
       <c r="C2">
-        <v>1.937303296807066</v>
+        <v>1.93072793134929</v>
       </c>
       <c r="D2">
-        <v>-1.734741677382702</v>
+        <v>-2.724715258176337</v>
       </c>
       <c r="E2">
-        <v>-3.14093520602799</v>
+        <v>-3.106898883271652</v>
       </c>
       <c r="F2">
-        <v>-2.080991132083254</v>
+        <v>-1.35447620710308</v>
       </c>
       <c r="G2">
-        <v>-3.448685970797585</v>
+        <v>-12.22703080859231</v>
       </c>
       <c r="H2">
-        <v>-2.543020420665861</v>
+        <v>-1.993325999359554</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,25 +473,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4216368198394775</v>
+        <v>0.4349879622459412</v>
       </c>
       <c r="C3">
-        <v>0.846427857875824</v>
+        <v>0.8347692489624023</v>
       </c>
       <c r="D3">
-        <v>0.423496812582016</v>
+        <v>0.5104972720146179</v>
       </c>
       <c r="E3">
-        <v>0.06077240779995918</v>
+        <v>0.07369081676006317</v>
       </c>
       <c r="F3">
-        <v>0.1392318904399872</v>
+        <v>0.2494703382253647</v>
       </c>
       <c r="G3">
-        <v>0.2003462165594101</v>
+        <v>0.01580405607819557</v>
       </c>
       <c r="H3">
-        <v>0.2078103125095367</v>
+        <v>0.3383004069328308</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -499,25 +499,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4278980195522308</v>
+        <v>0.4394610822200775</v>
       </c>
       <c r="C4">
-        <v>0.8019578456878662</v>
+        <v>0.7789176106452942</v>
       </c>
       <c r="D4">
-        <v>0.5084766745567322</v>
+        <v>0.631334662437439</v>
       </c>
       <c r="E4">
-        <v>0.0842847004532814</v>
+        <v>0.1021043136715889</v>
       </c>
       <c r="F4">
-        <v>0.1717276275157928</v>
+        <v>0.2979383170604706</v>
       </c>
       <c r="G4">
-        <v>0.3075476884841919</v>
+        <v>0.127647265791893</v>
       </c>
       <c r="H4">
-        <v>0.2629084587097168</v>
+        <v>0.380354255437851</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -525,25 +525,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.375389963388443</v>
+        <v>0.3749578595161438</v>
       </c>
       <c r="C5">
-        <v>0.7893338799476624</v>
+        <v>0.7599808573722839</v>
       </c>
       <c r="D5">
-        <v>0.4050320386886597</v>
+        <v>0.4448113739490509</v>
       </c>
       <c r="E5">
-        <v>0.06919961422681808</v>
+        <v>0.07973033934831619</v>
       </c>
       <c r="F5">
-        <v>0.1818868368864059</v>
+        <v>0.2859616875648499</v>
       </c>
       <c r="G5">
-        <v>0.2889100015163422</v>
+        <v>0.09533139318227768</v>
       </c>
       <c r="H5">
-        <v>0.2354905903339386</v>
+        <v>0.3522027730941772</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -551,25 +551,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5573626756668091</v>
+        <v>0.5554865002632141</v>
       </c>
       <c r="C6">
-        <v>0.188168078660965</v>
+        <v>0.1774798780679703</v>
       </c>
       <c r="D6">
-        <v>0.6618247628211975</v>
+        <v>0.7284404635429382</v>
       </c>
       <c r="E6">
-        <v>0.8639227747917175</v>
+        <v>0.876431941986084</v>
       </c>
       <c r="F6">
-        <v>0.8434329032897949</v>
+        <v>0.740733802318573</v>
       </c>
       <c r="G6">
-        <v>0.9452561736106873</v>
+        <v>0.9999574422836304</v>
       </c>
       <c r="H6">
-        <v>0.8793932795524597</v>
+        <v>0.846078097820282</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -577,25 +577,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5494842529296875</v>
+        <v>0.5392287969589233</v>
       </c>
       <c r="C7">
-        <v>0.1751695424318314</v>
+        <v>0.1786152869462967</v>
       </c>
       <c r="D7">
-        <v>0.6744581460952759</v>
+        <v>0.724489688873291</v>
       </c>
       <c r="E7">
-        <v>0.8959792852401733</v>
+        <v>0.888565719127655</v>
       </c>
       <c r="F7">
-        <v>0.8530579805374146</v>
+        <v>0.7267626523971558</v>
       </c>
       <c r="G7">
-        <v>0.9476028680801392</v>
+        <v>0.9999606609344482</v>
       </c>
       <c r="H7">
-        <v>0.8901272416114807</v>
+        <v>0.8387894034385681</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -603,25 +603,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5407620668411255</v>
+        <v>0.53805011510849</v>
       </c>
       <c r="C8">
-        <v>0.1562762260437012</v>
+        <v>0.1402391195297241</v>
       </c>
       <c r="D8">
-        <v>0.6914710998535156</v>
+        <v>0.774940013885498</v>
       </c>
       <c r="E8">
-        <v>0.8991127014160156</v>
+        <v>0.9187764525413513</v>
       </c>
       <c r="F8">
-        <v>0.867162823677063</v>
+        <v>0.7527977824211121</v>
       </c>
       <c r="G8">
-        <v>0.9390449523925781</v>
+        <v>0.9999372959136963</v>
       </c>
       <c r="H8">
-        <v>0.850828230381012</v>
+        <v>0.8182018399238586</v>
       </c>
     </row>
   </sheetData>
